--- a/Mapping_Spreadsheets/09_External_Standards.xlsx
+++ b/Mapping_Spreadsheets/09_External_Standards.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>Crash Driver Report</t>
   </si>
@@ -79,6 +79,9 @@
     <t>nc:PersonType</t>
   </si>
   <si>
+    <t>element</t>
+  </si>
+  <si>
     <t>A human being.</t>
   </si>
   <si>
@@ -256,351 +259,345 @@
     <t>j:Crash/j:CrashVehicle/j:CrashDriver</t>
   </si>
   <si>
-    <t>nc:RoleOfPerson</t>
+    <t>j:DriverLicense</t>
+  </si>
+  <si>
+    <t>j:DriverLicenseType</t>
+  </si>
+  <si>
+    <t>A license issued to a person granting driving privileges.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense</t>
+  </si>
+  <si>
+    <t>j:DriverLicenseCardIdentification</t>
+  </si>
+  <si>
+    <t>nc:IdentificationType</t>
+  </si>
+  <si>
+    <t>An identification that is affixed to the raw materials (card stock, laminate, etc.) used in producing driver licenses and ID cards. The numbers are issued by the material's manufacturer and provide a unique reference to a card within a jurisdiction.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification</t>
+  </si>
+  <si>
+    <t>Driver License Number</t>
+  </si>
+  <si>
+    <t>An identification number off of a drivers license.</t>
+  </si>
+  <si>
+    <t>nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>niem-xs:string</t>
+  </si>
+  <si>
+    <t>An identifier.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>j:DriverLicenseAugmentationPoint</t>
+  </si>
+  <si>
+    <t>An augmentation point for DriverLicenseType.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]</t>
+  </si>
+  <si>
+    <t>ext:LicenseAugmentation</t>
+  </si>
+  <si>
+    <t>ext:LicenseAugmentationType</t>
+  </si>
+  <si>
+    <t>structures:AugmentationType</t>
+  </si>
+  <si>
+    <t>A definition for a LicenseAugmentation.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation</t>
+  </si>
+  <si>
+    <t>nc:ContactInformation</t>
+  </si>
+  <si>
+    <t>nc:ContactInformationType</t>
+  </si>
+  <si>
+    <t>A set of details about how to contact a person or an organization.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation</t>
+  </si>
+  <si>
+    <t>nc:ContactMeansAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a means of contacting someone.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>An email address.</t>
+  </si>
+  <si>
+    <t>nc:ContactEmailID</t>
+  </si>
+  <si>
+    <t>An electronic mailing address by which a person or organization may be contacted.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]/nc:ContactEmailID</t>
+  </si>
+  <si>
+    <t>Injured Person</t>
+  </si>
+  <si>
+    <t>A person injured in a crash.</t>
+  </si>
+  <si>
+    <t>j:CrashPerson</t>
+  </si>
+  <si>
+    <t>j:CrashPersonType</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>A person involved in a traffic accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson</t>
+  </si>
+  <si>
+    <t>j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>nc:InjuryType</t>
+  </si>
+  <si>
+    <t>An injury received by a person involved in a traffic accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>Injury Description</t>
+  </si>
+  <si>
+    <t>A description of an injury.</t>
+  </si>
+  <si>
+    <t>nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>nc:TextType</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>nc:InjurySeverityAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a severity of an injury received by a person involved into a Traffic Accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]</t>
+  </si>
+  <si>
+    <t>Severity Code</t>
+  </si>
+  <si>
+    <t>A code for how severe an injury was.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>j:InjurySeverityCode</t>
+  </si>
+  <si>
+    <t>aamva_d20:AccidentSeverityCodeType</t>
+  </si>
+  <si>
+    <t>A severity of an injury received by a person, such as in a traffic accident or crash.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]/j:InjurySeverityCode</t>
+  </si>
+  <si>
+    <t>Through Window</t>
+  </si>
+  <si>
+    <t>Whether a person was flung through a window by a crash.</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Injury Privacy Code</t>
+  </si>
+  <si>
+    <t>A code for whether and how the information about an injury was private.</t>
+  </si>
+  <si>
+    <t>nc:Location</t>
+  </si>
+  <si>
+    <t>nc:LocationType</t>
+  </si>
+  <si>
+    <t>A geospatial location.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location</t>
+  </si>
+  <si>
+    <t>nc:LocationGeospatialCoordinateAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a geospatial location.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]</t>
+  </si>
+  <si>
+    <t>geo:LocationGeospatialPoint</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/geo:LocationGeospatialPoint</t>
+  </si>
+  <si>
+    <t>gml:Point</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/geo:LocationGeospatialPoint/gml:Point</t>
+  </si>
+  <si>
+    <t>Crash Location Coordinates</t>
+  </si>
+  <si>
+    <t>Latitude and longitude of a location.</t>
+  </si>
+  <si>
+    <t>gml:pos</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/geo:LocationGeospatialPoint/gml:Point/gml:pos</t>
+  </si>
+  <si>
+    <t>nc:Location2DGeospatialCoordinate</t>
+  </si>
+  <si>
+    <t>nc:Location2DGeospatialCoordinateType</t>
+  </si>
+  <si>
+    <t>A location identified by a latitude and longitude.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate</t>
+  </si>
+  <si>
+    <t>nc:GeographicCoordinateLatitude</t>
+  </si>
+  <si>
+    <t>nc:LatitudeCoordinateType</t>
+  </si>
+  <si>
+    <t>A measurement of the angular distance between a point on the Earth and the Equator.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude</t>
+  </si>
+  <si>
+    <t>nc:LatitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>nc:LatitudeDegreeType</t>
+  </si>
+  <si>
+    <t>A value that specifies the degree of a latitude. The value comes from a restricted range between -90 (inclusive) and +90 (inclusive).</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>nc:LatitudeMinuteValue</t>
+  </si>
+  <si>
+    <t>nc:AngularMinuteType</t>
+  </si>
+  <si>
+    <t>A latitude value that specifies a minute of a degree. The value comes from a restricted range of 0 (inclusive) to 60 (exclusive).</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeMinuteValue</t>
+  </si>
+  <si>
+    <t>nc:GeographicCoordinateLongitude</t>
+  </si>
+  <si>
+    <t>nc:LongitudeCoordinateType</t>
+  </si>
+  <si>
+    <t>A measurement of the angular distance between a point on the Earth and the Prime Meridian.</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude</t>
+  </si>
+  <si>
+    <t>nc:LongitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>nc:LongitudeDegreeType</t>
+  </si>
+  <si>
+    <t>A value that specifies the degree of a longitude. The value comes from a restricted range between -180 (inclusive) and +180 (inclusive).</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>nc:LongitudeMinuteValue</t>
+  </si>
+  <si>
+    <t>A longitude value that specifies a minute of a degree. The value comes from a restricted range of 0 (inclusive) to 60 (exclusive).</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeMinuteValue</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociationType</t>
+  </si>
+  <si>
+    <t>An association between a person and a charge issued to that person.</t>
+  </si>
+  <si>
+    <t>0..1</t>
   </si>
   <si>
     <t>reference</t>
   </si>
   <si>
-    <t>A person of whom the role object is a function.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashVehicle/j:CrashDriver/nc:RoleOfPerson</t>
-  </si>
-  <si>
-    <t>j:DriverLicense</t>
-  </si>
-  <si>
-    <t>j:DriverLicenseType</t>
-  </si>
-  <si>
-    <t>A license issued to a person granting driving privileges.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense</t>
-  </si>
-  <si>
-    <t>j:DriverLicenseCardIdentification</t>
-  </si>
-  <si>
-    <t>nc:IdentificationType</t>
-  </si>
-  <si>
-    <t>An identification that is affixed to the raw materials (card stock, laminate, etc.) used in producing driver licenses and ID cards. The numbers are issued by the material's manufacturer and provide a unique reference to a card within a jurisdiction.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification</t>
-  </si>
-  <si>
-    <t>Driver License Number</t>
-  </si>
-  <si>
-    <t>An identification number off of a drivers license.</t>
-  </si>
-  <si>
-    <t>nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>niem-xs:string</t>
-  </si>
-  <si>
-    <t>An identifier.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>j:DriverLicenseAugmentationPoint</t>
-  </si>
-  <si>
-    <t>An augmentation point for DriverLicenseType.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]</t>
-  </si>
-  <si>
-    <t>ext:LicenseAugmentation</t>
-  </si>
-  <si>
-    <t>ext:LicenseAugmentationType</t>
-  </si>
-  <si>
-    <t>structures:AugmentationType</t>
-  </si>
-  <si>
-    <t>A definition for a LicenseAugmentation.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation</t>
-  </si>
-  <si>
-    <t>nc:ContactInformation</t>
-  </si>
-  <si>
-    <t>nc:ContactInformationType</t>
-  </si>
-  <si>
-    <t>A set of details about how to contact a person or an organization.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation</t>
-  </si>
-  <si>
-    <t>nc:ContactMeansAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a means of contacting someone.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>An email address.</t>
-  </si>
-  <si>
-    <t>nc:ContactEmailID</t>
-  </si>
-  <si>
-    <t>An electronic mailing address by which a person or organization may be contacted.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]/nc:ContactEmailID</t>
-  </si>
-  <si>
-    <t>Injured Person</t>
-  </si>
-  <si>
-    <t>A person injured in a crash.</t>
-  </si>
-  <si>
-    <t>j:CrashPerson</t>
-  </si>
-  <si>
-    <t>j:CrashPersonType</t>
-  </si>
-  <si>
-    <t>A person involved in a traffic accident.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/nc:RoleOfPerson</t>
-  </si>
-  <si>
-    <t>j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>nc:InjuryType</t>
-  </si>
-  <si>
-    <t>An injury received by a person involved in a traffic accident.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>Injury Description</t>
-  </si>
-  <si>
-    <t>A description of an injury.</t>
-  </si>
-  <si>
-    <t>nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>nc:TextType</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>nc:InjurySeverityAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a severity of an injury received by a person involved into a Traffic Accident.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]</t>
-  </si>
-  <si>
-    <t>Severity Code</t>
-  </si>
-  <si>
-    <t>A code for how severe an injury was.</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>j:InjurySeverityCode</t>
-  </si>
-  <si>
-    <t>aamva_d20:AccidentSeverityCodeType</t>
-  </si>
-  <si>
-    <t>A severity of an injury received by a person, such as in a traffic accident or crash.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]/j:InjurySeverityCode</t>
-  </si>
-  <si>
-    <t>Through Window</t>
-  </si>
-  <si>
-    <t>Whether a person was flung through a window by a crash.</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Injury Privacy Code</t>
-  </si>
-  <si>
-    <t>A code for whether and how the information about an injury was private.</t>
-  </si>
-  <si>
-    <t>nc:Location</t>
-  </si>
-  <si>
-    <t>nc:LocationType</t>
-  </si>
-  <si>
-    <t>A geospatial location.</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location</t>
-  </si>
-  <si>
-    <t>nc:LocationGeospatialCoordinateAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a geospatial location.</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]</t>
-  </si>
-  <si>
-    <t>geo:LocationGeospatialPoint</t>
-  </si>
-  <si>
-    <t>external</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/[geo:LocationGeospatialPoint]</t>
-  </si>
-  <si>
-    <t>gml:Point</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/geo:LocationGeospatialPoint/[gml:Point]</t>
-  </si>
-  <si>
-    <t>Crash Location Coordinates</t>
-  </si>
-  <si>
-    <t>Latitude and longitude of a location.</t>
-  </si>
-  <si>
-    <t>gml:pos</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/geo:LocationGeospatialPoint/gml:Point/[gml:pos]</t>
-  </si>
-  <si>
-    <t>nc:Location2DGeospatialCoordinate</t>
-  </si>
-  <si>
-    <t>nc:Location2DGeospatialCoordinateType</t>
-  </si>
-  <si>
-    <t>A location identified by a latitude and longitude.</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate</t>
-  </si>
-  <si>
-    <t>nc:GeographicCoordinateLatitude</t>
-  </si>
-  <si>
-    <t>nc:LatitudeCoordinateType</t>
-  </si>
-  <si>
-    <t>A measurement of the angular distance between a point on the Earth and the Equator.</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude</t>
-  </si>
-  <si>
-    <t>nc:LatitudeDegreeValue</t>
-  </si>
-  <si>
-    <t>nc:LatitudeDegreeType</t>
-  </si>
-  <si>
-    <t>A value that specifies the degree of a latitude. The value comes from a restricted range between -90 (inclusive) and +90 (inclusive).</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
-  </si>
-  <si>
-    <t>nc:LatitudeMinuteValue</t>
-  </si>
-  <si>
-    <t>nc:AngularMinuteType</t>
-  </si>
-  <si>
-    <t>A latitude value that specifies a minute of a degree. The value comes from a restricted range of 0 (inclusive) to 60 (exclusive).</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeMinuteValue</t>
-  </si>
-  <si>
-    <t>nc:GeographicCoordinateLongitude</t>
-  </si>
-  <si>
-    <t>nc:LongitudeCoordinateType</t>
-  </si>
-  <si>
-    <t>A measurement of the angular distance between a point on the Earth and the Prime Meridian.</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude</t>
-  </si>
-  <si>
-    <t>nc:LongitudeDegreeValue</t>
-  </si>
-  <si>
-    <t>nc:LongitudeDegreeType</t>
-  </si>
-  <si>
-    <t>A value that specifies the degree of a longitude. The value comes from a restricted range between -180 (inclusive) and +180 (inclusive).</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeDegreeValue</t>
-  </si>
-  <si>
-    <t>nc:LongitudeMinuteValue</t>
-  </si>
-  <si>
-    <t>A longitude value that specifies a minute of a degree. The value comes from a restricted range of 0 (inclusive) to 60 (exclusive).</t>
-  </si>
-  <si>
-    <t>j:Crash/nc:Location/[nc:LocationGeospatialCoordinateAbstract]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeMinuteValue</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociationType</t>
-  </si>
-  <si>
-    <t>An association between a person and a charge issued to that person.</t>
-  </si>
-  <si>
     <t>j:PersonChargeAssociation/nc:Person</t>
   </si>
   <si>
@@ -613,9 +610,6 @@
     <t>A formal allegation that a specific person has committed a specific offense.</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
     <t>j:PersonChargeAssociation/j:Charge</t>
   </si>
   <si>
@@ -625,9 +619,6 @@
     <t>A committed offense.</t>
   </si>
   <si>
-    <t>element</t>
-  </si>
-  <si>
     <t>Charge Description</t>
   </si>
   <si>
@@ -661,13 +652,34 @@
     <t>j:Charge/j:ChargeFelonyIndicator</t>
   </si>
   <si>
-    <t>j:Metadata</t>
-  </si>
-  <si>
-    <t>j:MetadataType</t>
-  </si>
-  <si>
-    <t>Information that further qualifies the kind of data represented.</t>
+    <t>nc:Metadata</t>
+  </si>
+  <si>
+    <t>nc:MetadataType</t>
+  </si>
+  <si>
+    <t>Information that further qualifies primary data; data about data.</t>
+  </si>
+  <si>
+    <t>nc:MetadataAugmentationPoint</t>
+  </si>
+  <si>
+    <t>An augmentation point for nc:MetadataType.</t>
+  </si>
+  <si>
+    <t>nc:Metadata/[nc:MetadataAugmentationPoint]</t>
+  </si>
+  <si>
+    <t>j:MetadataAugmentation</t>
+  </si>
+  <si>
+    <t>j:MetadataAugmentationType</t>
+  </si>
+  <si>
+    <t>Additional information about metadata.</t>
+  </si>
+  <si>
+    <t>nc:Metadata/[nc:MetadataAugmentationPoint]/j:MetadataAugmentation</t>
   </si>
   <si>
     <t>Is Criminal Information</t>
@@ -682,7 +694,7 @@
     <t>True if the information specified is classified as criminal information; false if it is not classified as criminal information.</t>
   </si>
   <si>
-    <t>j:Metadata/j:CriminalInformationIndicator</t>
+    <t>nc:Metadata/[nc:MetadataAugmentationPoint]/j:MetadataAugmentation/j:CriminalInformationIndicator</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1420,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1438,7 +1449,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1464,7 +1474,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1490,7 +1499,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1516,7 +1524,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1542,7 +1549,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1568,7 +1574,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1594,7 +1599,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1620,7 +1624,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1646,7 +1649,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1697,7 +1699,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1723,7 +1724,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1749,7 +1749,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1775,7 +1774,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1801,7 +1799,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1827,7 +1824,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1853,7 +1849,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1879,7 +1874,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1905,7 +1899,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1931,7 +1924,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1979,7 +1971,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2009,7 +2000,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2035,7 +2025,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2061,7 +2050,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2087,7 +2075,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2113,7 +2100,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2139,7 +2125,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2165,7 +2150,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2191,7 +2175,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2217,7 +2200,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2390,9 +2372,11 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="K4" t="s" s="22">
+        <v>22</v>
+      </c>
       <c r="L4" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s" s="22">
         <v>19</v>
@@ -2408,22 +2392,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F5" t="s" s="21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" t="s" s="22">
@@ -2432,7 +2416,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" t="s" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s" s="22">
         <v>19</v>
@@ -2440,7 +2424,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" t="s" s="25">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2450,17 +2434,17 @@
       <c r="D6" s="17"/>
       <c r="E6" s="28"/>
       <c r="F6" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" t="s" s="22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" t="s" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="22">
         <v>19</v>
@@ -2468,7 +2452,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" t="s" s="25">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2478,25 +2462,25 @@
       <c r="D7" s="17"/>
       <c r="E7" s="28"/>
       <c r="F7" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" t="s" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" t="s" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" t="s" s="25">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2506,10 +2490,10 @@
       <c r="D8" s="17"/>
       <c r="E8" s="28"/>
       <c r="F8" t="s" s="21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" t="s" s="22">
@@ -2518,7 +2502,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" t="s" s="24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s" s="22">
         <v>19</v>
@@ -2526,7 +2510,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" t="s" s="25">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2534,31 +2518,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s" s="19">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F9" t="s" s="21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" t="s" s="24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s" s="22">
         <v>19</v>
@@ -2566,7 +2550,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" t="s" s="25">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -2574,39 +2558,39 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="19">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="21">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" t="s" s="24">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s" s="22">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" t="s" s="25">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2614,31 +2598,31 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="19">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F11" t="s" s="21">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s" s="24">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s" s="22">
         <v>19</v>
@@ -2646,16 +2630,16 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" t="s" s="25">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" t="s" s="18">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s" s="19">
         <v>1</v>
@@ -2664,17 +2648,17 @@
         <v>19</v>
       </c>
       <c r="F12" t="s" s="21">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s" s="22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" t="s" s="24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s" s="22">
         <v>19</v>
@@ -2682,7 +2666,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" t="s" s="25">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -2692,19 +2676,19 @@
       <c r="D13" s="17"/>
       <c r="E13" s="28"/>
       <c r="F13" t="s" s="21">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" t="s" s="22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" t="s" s="24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s" s="22">
         <v>19</v>
@@ -2712,7 +2696,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" t="s" s="25">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -2722,17 +2706,17 @@
       <c r="D14" s="17"/>
       <c r="E14" s="28"/>
       <c r="F14" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" t="s" s="22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" t="s" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s" s="22">
         <v>19</v>
@@ -2740,45 +2724,45 @@
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" t="s" s="25">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s" s="19">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F15" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" t="s" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" t="s" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" t="s" s="25">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -2788,19 +2772,19 @@
       <c r="D16" s="17"/>
       <c r="E16" s="28"/>
       <c r="F16" t="s" s="21">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="22">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" t="s" s="22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" t="s" s="24">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M16" t="s" s="22">
         <v>19</v>
@@ -2808,16 +2792,16 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" t="s" s="25">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="16">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" t="s" s="18">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s" s="19">
         <v>1</v>
@@ -2826,19 +2810,19 @@
         <v>19</v>
       </c>
       <c r="F17" t="s" s="21">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="22">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" t="s" s="22">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" t="s" s="24">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M17" t="s" s="22">
         <v>19</v>
@@ -2846,7 +2830,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" t="s" s="25">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -2856,21 +2840,19 @@
       <c r="D18" s="17"/>
       <c r="E18" s="28"/>
       <c r="F18" t="s" s="21">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="22">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" t="s" s="22">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J18" s="23"/>
-      <c r="K18" t="s" s="22">
-        <v>82</v>
-      </c>
+      <c r="K18" s="23"/>
       <c r="L18" t="s" s="24">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s" s="22">
         <v>19</v>
@@ -2878,29 +2860,29 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" t="s" s="25">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" ht="44.05" customHeight="1">
       <c r="A19" s="26"/>
       <c r="B19" s="17"/>
       <c r="C19" s="27"/>
       <c r="D19" s="17"/>
       <c r="E19" s="28"/>
       <c r="F19" t="s" s="21">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="22">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" t="s" s="22">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" t="s" s="24">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s" s="22">
         <v>19</v>
@@ -2908,29 +2890,39 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" t="s" s="25">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" ht="44.05" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="28"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="16">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s" s="19">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s" s="18">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F20" t="s" s="21">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s" s="22">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" t="s" s="22">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" t="s" s="24">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M20" t="s" s="22">
         <v>19</v>
@@ -2938,34 +2930,22 @@
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" t="s" s="25">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="16">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s" s="19">
-        <v>93</v>
-      </c>
-      <c r="C21" t="s" s="18">
-        <v>94</v>
-      </c>
-      <c r="D21" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s" s="20">
-        <v>19</v>
-      </c>
+      <c r="A21" s="26"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="28"/>
       <c r="F21" t="s" s="21">
-        <v>95</v>
-      </c>
-      <c r="G21" t="s" s="22">
         <v>96</v>
       </c>
+      <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" t="s" s="22">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
@@ -2990,23 +2970,25 @@
       <c r="F22" t="s" s="21">
         <v>99</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" t="s" s="22">
-        <v>85</v>
-      </c>
-      <c r="J22" s="23"/>
+      <c r="G22" t="s" s="22">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s" s="22">
+        <v>101</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" t="s" s="22">
+        <v>96</v>
+      </c>
       <c r="K22" s="23"/>
       <c r="L22" t="s" s="24">
-        <v>100</v>
-      </c>
-      <c r="M22" t="s" s="22">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M22" s="23"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" t="s" s="25">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -3016,27 +2998,27 @@
       <c r="D23" s="17"/>
       <c r="E23" s="28"/>
       <c r="F23" t="s" s="21">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s" s="22">
-        <v>103</v>
-      </c>
-      <c r="H23" t="s" s="22">
-        <v>104</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" t="s" s="22">
+        <v>105</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" t="s" s="22">
         <v>99</v>
       </c>
+      <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" t="s" s="24">
-        <v>105</v>
-      </c>
-      <c r="M23" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="M23" t="s" s="22">
+        <v>19</v>
+      </c>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" t="s" s="25">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -3046,14 +3028,12 @@
       <c r="D24" s="17"/>
       <c r="E24" s="28"/>
       <c r="F24" t="s" s="21">
-        <v>107</v>
-      </c>
-      <c r="G24" t="s" s="22">
         <v>108</v>
       </c>
+      <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" t="s" s="22">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -3070,131 +3050,143 @@
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="28"/>
+      <c r="A25" t="s" s="16">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s" s="19">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s" s="18">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F25" t="s" s="21">
-        <v>111</v>
-      </c>
-      <c r="G25" s="23"/>
+        <v>113</v>
+      </c>
+      <c r="G25" t="s" s="22">
+        <v>93</v>
+      </c>
       <c r="H25" s="23"/>
-      <c r="I25" t="s" s="22">
-        <v>107</v>
-      </c>
-      <c r="J25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" t="s" s="22">
+        <v>108</v>
+      </c>
       <c r="K25" s="23"/>
       <c r="L25" t="s" s="24">
-        <v>112</v>
-      </c>
-      <c r="M25" t="s" s="22">
-        <v>19</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M25" s="23"/>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
       <c r="P25" t="s" s="25">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="16">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s" s="19">
-        <v>114</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B26" s="17"/>
       <c r="C26" t="s" s="18">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s" s="19">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s" s="20">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="21">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s" s="22">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" t="s" s="22">
-        <v>111</v>
-      </c>
-      <c r="K26" s="23"/>
+      <c r="I26" t="s" s="22">
+        <v>62</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" t="s" s="22">
+        <v>120</v>
+      </c>
       <c r="L26" t="s" s="24">
-        <v>117</v>
-      </c>
-      <c r="M26" s="23"/>
+        <v>121</v>
+      </c>
+      <c r="M26" t="s" s="22">
+        <v>53</v>
+      </c>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
       <c r="P26" t="s" s="25">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="16">
-        <v>119</v>
-      </c>
+      <c r="A27" s="26"/>
       <c r="B27" s="17"/>
-      <c r="C27" t="s" s="18">
-        <v>120</v>
-      </c>
-      <c r="D27" t="s" s="19">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s" s="20">
-        <v>49</v>
-      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="28"/>
       <c r="F27" t="s" s="21">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s" s="22">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" t="s" s="22">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" t="s" s="24">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M27" t="s" s="22">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" t="s" s="25">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="28"/>
+      <c r="A28" t="s" s="16">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s" s="19">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s" s="18">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F28" t="s" s="21">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s" s="22">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" t="s" s="22">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J28" s="23"/>
-      <c r="K28" t="s" s="22">
-        <v>82</v>
-      </c>
+      <c r="K28" s="23"/>
       <c r="L28" t="s" s="24">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="M28" t="s" s="22">
         <v>19</v>
@@ -3202,7 +3194,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" t="s" s="25">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -3212,19 +3204,17 @@
       <c r="D29" s="17"/>
       <c r="E29" s="28"/>
       <c r="F29" t="s" s="21">
-        <v>126</v>
-      </c>
-      <c r="G29" t="s" s="22">
-        <v>127</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" t="s" s="22">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" t="s" s="24">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M29" t="s" s="22">
         <v>19</v>
@@ -3232,170 +3222,160 @@
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" t="s" s="25">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="16">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s" s="19">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s" s="18">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s" s="19">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F30" t="s" s="21">
+        <v>138</v>
+      </c>
+      <c r="G30" t="s" s="22">
+        <v>139</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" t="s" s="22">
         <v>132</v>
       </c>
-      <c r="G30" t="s" s="22">
-        <v>133</v>
-      </c>
-      <c r="H30" s="23"/>
-      <c r="I30" t="s" s="22">
-        <v>126</v>
-      </c>
-      <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" t="s" s="24">
-        <v>131</v>
-      </c>
-      <c r="M30" t="s" s="22">
-        <v>19</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M30" s="23"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" t="s" s="25">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="28"/>
-      <c r="F31" t="s" s="21">
-        <v>135</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" ht="32.05" customHeight="1">
+      <c r="A31" t="s" s="16">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s" s="19">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s" s="18">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s" s="19">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F31" s="29"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-      <c r="I31" t="s" s="22">
-        <v>126</v>
-      </c>
+      <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
-      <c r="L31" t="s" s="24">
-        <v>136</v>
-      </c>
-      <c r="M31" t="s" s="22">
-        <v>19</v>
-      </c>
+      <c r="L31" s="30"/>
+      <c r="M31" s="23"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
-      <c r="P31" t="s" s="25">
+      <c r="P31" s="31"/>
+    </row>
+    <row r="32" ht="32.05" customHeight="1">
+      <c r="A32" t="s" s="16">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s" s="19">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s" s="18">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s" s="19">
         <v>137</v>
       </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="16">
-        <v>119</v>
-      </c>
-      <c r="B32" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C32" t="s" s="18">
-        <v>139</v>
-      </c>
-      <c r="D32" t="s" s="19">
-        <v>140</v>
-      </c>
       <c r="E32" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="F32" t="s" s="21">
-        <v>141</v>
-      </c>
-      <c r="G32" t="s" s="22">
-        <v>142</v>
-      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
-      <c r="J32" t="s" s="22">
-        <v>135</v>
-      </c>
+      <c r="J32" s="23"/>
       <c r="K32" s="23"/>
-      <c r="L32" t="s" s="24">
-        <v>143</v>
-      </c>
+      <c r="L32" s="30"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
-      <c r="P32" t="s" s="25">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" ht="32.05" customHeight="1">
-      <c r="A33" t="s" s="16">
-        <v>119</v>
-      </c>
-      <c r="B33" t="s" s="19">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s" s="18">
-        <v>146</v>
-      </c>
-      <c r="D33" t="s" s="19">
+      <c r="P32" s="31"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="26"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="28"/>
+      <c r="F33" t="s" s="32">
         <v>147</v>
       </c>
-      <c r="E33" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" ht="32.05" customHeight="1">
-      <c r="A34" t="s" s="16">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s" s="19">
+      <c r="G33" t="s" s="33">
         <v>148</v>
       </c>
-      <c r="C34" t="s" s="18">
+      <c r="H33" s="34"/>
+      <c r="I33" t="s" s="33">
+        <v>62</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" t="s" s="35">
         <v>149</v>
       </c>
-      <c r="D34" t="s" s="19">
-        <v>140</v>
-      </c>
-      <c r="E34" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="31"/>
+      <c r="M33" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" t="s" s="36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="28"/>
+      <c r="F34" t="s" s="32">
+        <v>151</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" t="s" s="33">
+        <v>147</v>
+      </c>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" t="s" s="35">
+        <v>152</v>
+      </c>
+      <c r="M34" t="s" s="33">
+        <v>19</v>
+      </c>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" t="s" s="36">
+        <v>153</v>
+      </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="26"/>
@@ -3404,27 +3384,23 @@
       <c r="D35" s="17"/>
       <c r="E35" s="28"/>
       <c r="F35" t="s" s="32">
-        <v>150</v>
-      </c>
-      <c r="G35" t="s" s="33">
+        <v>154</v>
+      </c>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" t="s" s="33">
         <v>151</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" t="s" s="33">
-        <v>61</v>
-      </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" t="s" s="35">
-        <v>152</v>
-      </c>
-      <c r="M35" t="s" s="33">
-        <v>19</v>
-      </c>
+      <c r="K35" t="s" s="33">
+        <v>155</v>
+      </c>
+      <c r="L35" s="37"/>
+      <c r="M35" s="34"/>
       <c r="N35" s="34"/>
       <c r="O35" s="34"/>
       <c r="P35" t="s" s="36">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -3434,51 +3410,63 @@
       <c r="D36" s="17"/>
       <c r="E36" s="28"/>
       <c r="F36" t="s" s="32">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
       <c r="I36" t="s" s="33">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" t="s" s="35">
+      <c r="K36" t="s" s="33">
         <v>155</v>
       </c>
+      <c r="L36" s="37"/>
       <c r="M36" t="s" s="33">
         <v>19</v>
       </c>
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
       <c r="P36" t="s" s="36">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="28"/>
+      <c r="A37" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s" s="19">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s" s="18">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F37" t="s" s="32">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" t="s" s="33">
-        <v>154</v>
-      </c>
+      <c r="I37" t="s" s="33">
+        <v>157</v>
+      </c>
+      <c r="J37" s="34"/>
       <c r="K37" t="s" s="33">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L37" s="37"/>
-      <c r="M37" s="34"/>
+      <c r="M37" t="s" s="33">
+        <v>19</v>
+      </c>
       <c r="N37" s="34"/>
       <c r="O37" s="34"/>
       <c r="P37" t="s" s="36">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -3488,63 +3476,63 @@
       <c r="D38" s="17"/>
       <c r="E38" s="28"/>
       <c r="F38" t="s" s="32">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" t="s" s="33">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="J38" s="34"/>
-      <c r="K38" t="s" s="33">
-        <v>158</v>
-      </c>
-      <c r="L38" s="37"/>
+      <c r="K38" s="34"/>
+      <c r="L38" t="s" s="35">
+        <v>152</v>
+      </c>
       <c r="M38" t="s" s="33">
         <v>19</v>
       </c>
       <c r="N38" s="34"/>
       <c r="O38" s="34"/>
       <c r="P38" t="s" s="36">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s" s="19">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C39" t="s" s="18">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s" s="32">
         <v>163</v>
       </c>
-      <c r="D39" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s" s="32">
+      <c r="G39" t="s" s="33">
         <v>164</v>
       </c>
-      <c r="G39" s="34"/>
       <c r="H39" s="34"/>
-      <c r="I39" t="s" s="33">
-        <v>160</v>
-      </c>
-      <c r="J39" s="34"/>
-      <c r="K39" t="s" s="33">
-        <v>158</v>
-      </c>
-      <c r="L39" s="37"/>
-      <c r="M39" t="s" s="33">
-        <v>19</v>
-      </c>
+      <c r="I39" s="34"/>
+      <c r="J39" t="s" s="33">
+        <v>151</v>
+      </c>
+      <c r="K39" s="34"/>
+      <c r="L39" t="s" s="35">
+        <v>165</v>
+      </c>
+      <c r="M39" s="34"/>
       <c r="N39" s="34"/>
       <c r="O39" s="34"/>
       <c r="P39" t="s" s="36">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -3554,17 +3542,19 @@
       <c r="D40" s="17"/>
       <c r="E40" s="28"/>
       <c r="F40" t="s" s="32">
-        <v>154</v>
-      </c>
-      <c r="G40" s="34"/>
+        <v>167</v>
+      </c>
+      <c r="G40" t="s" s="33">
+        <v>168</v>
+      </c>
       <c r="H40" s="34"/>
       <c r="I40" t="s" s="33">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
       <c r="L40" t="s" s="35">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M40" t="s" s="33">
         <v>19</v>
@@ -3572,67 +3562,59 @@
       <c r="N40" s="34"/>
       <c r="O40" s="34"/>
       <c r="P40" t="s" s="36">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="16">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s" s="19">
-        <v>162</v>
-      </c>
-      <c r="C41" t="s" s="18">
-        <v>163</v>
-      </c>
-      <c r="D41" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E41" t="s" s="20">
-        <v>19</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" ht="32.05" customHeight="1">
+      <c r="A41" s="26"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="28"/>
       <c r="F41" t="s" s="32">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s" s="33">
+        <v>172</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" t="s" s="33">
         <v>167</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" t="s" s="33">
-        <v>154</v>
-      </c>
+      <c r="J41" s="34"/>
       <c r="K41" s="34"/>
       <c r="L41" t="s" s="35">
-        <v>168</v>
-      </c>
-      <c r="M41" s="34"/>
+        <v>173</v>
+      </c>
+      <c r="M41" t="s" s="33">
+        <v>19</v>
+      </c>
       <c r="N41" s="34"/>
       <c r="O41" s="34"/>
       <c r="P41" t="s" s="36">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" ht="32.05" customHeight="1">
       <c r="A42" s="26"/>
       <c r="B42" s="17"/>
       <c r="C42" s="27"/>
       <c r="D42" s="17"/>
       <c r="E42" s="28"/>
       <c r="F42" t="s" s="32">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s" s="33">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H42" s="34"/>
       <c r="I42" t="s" s="33">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
       <c r="L42" t="s" s="35">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M42" t="s" s="33">
         <v>19</v>
@@ -3640,29 +3622,29 @@
       <c r="N42" s="34"/>
       <c r="O42" s="34"/>
       <c r="P42" t="s" s="36">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" ht="32.05" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="26"/>
       <c r="B43" s="17"/>
       <c r="C43" s="27"/>
       <c r="D43" s="17"/>
       <c r="E43" s="28"/>
       <c r="F43" t="s" s="32">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s" s="33">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H43" s="34"/>
       <c r="I43" t="s" s="33">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J43" s="34"/>
       <c r="K43" s="34"/>
       <c r="L43" t="s" s="35">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M43" t="s" s="33">
         <v>19</v>
@@ -3670,7 +3652,7 @@
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
       <c r="P43" t="s" s="36">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" ht="32.05" customHeight="1">
@@ -3680,19 +3662,19 @@
       <c r="D44" s="17"/>
       <c r="E44" s="28"/>
       <c r="F44" t="s" s="32">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G44" t="s" s="33">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" t="s" s="33">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
       <c r="L44" t="s" s="35">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M44" t="s" s="33">
         <v>19</v>
@@ -3700,29 +3682,29 @@
       <c r="N44" s="34"/>
       <c r="O44" s="34"/>
       <c r="P44" t="s" s="36">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" ht="32.05" customHeight="1">
       <c r="A45" s="26"/>
       <c r="B45" s="17"/>
       <c r="C45" s="27"/>
       <c r="D45" s="17"/>
       <c r="E45" s="28"/>
       <c r="F45" t="s" s="32">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s" s="33">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H45" s="34"/>
       <c r="I45" t="s" s="33">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
       <c r="L45" t="s" s="35">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M45" t="s" s="33">
         <v>19</v>
@@ -3730,87 +3712,91 @@
       <c r="N45" s="34"/>
       <c r="O45" s="34"/>
       <c r="P45" t="s" s="36">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" ht="32.05" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="26"/>
       <c r="B46" s="17"/>
       <c r="C46" s="27"/>
       <c r="D46" s="17"/>
       <c r="E46" s="28"/>
-      <c r="F46" t="s" s="32">
-        <v>186</v>
-      </c>
-      <c r="G46" t="s" s="33">
-        <v>187</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" t="s" s="33">
-        <v>182</v>
-      </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" t="s" s="35">
-        <v>188</v>
-      </c>
-      <c r="M46" t="s" s="33">
-        <v>19</v>
-      </c>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" t="s" s="36">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" ht="32.05" customHeight="1">
+      <c r="F46" t="s" s="21">
+        <v>190</v>
+      </c>
+      <c r="G46" t="s" s="22">
+        <v>191</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" t="s" s="24">
+        <v>192</v>
+      </c>
+      <c r="M46" t="s" s="22">
+        <v>193</v>
+      </c>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" t="s" s="25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="26"/>
       <c r="B47" s="17"/>
       <c r="C47" s="27"/>
       <c r="D47" s="17"/>
       <c r="E47" s="28"/>
-      <c r="F47" t="s" s="32">
+      <c r="F47" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s" s="22">
+        <v>21</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" t="s" s="22">
         <v>190</v>
       </c>
-      <c r="G47" t="s" s="33">
-        <v>179</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" t="s" s="33">
-        <v>182</v>
-      </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" t="s" s="35">
-        <v>191</v>
-      </c>
-      <c r="M47" t="s" s="33">
-        <v>19</v>
-      </c>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" t="s" s="36">
-        <v>192</v>
+      <c r="J47" s="23"/>
+      <c r="K47" t="s" s="22">
+        <v>194</v>
+      </c>
+      <c r="L47" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s" s="22">
+        <v>19</v>
+      </c>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" t="s" s="25">
+        <v>195</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="26"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="27"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="28"/>
       <c r="F48" t="s" s="21">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G48" t="s" s="22">
+        <v>197</v>
+      </c>
+      <c r="H48" s="23"/>
+      <c r="I48" t="s" s="22">
+        <v>190</v>
+      </c>
+      <c r="J48" s="23"/>
+      <c r="K48" t="s" s="22">
         <v>194</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
       <c r="L48" t="s" s="24">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M48" t="s" s="22">
         <v>19</v>
@@ -3818,34 +3804,40 @@
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
       <c r="P48" t="s" s="25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" t="s" s="16">
+        <v>200</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" t="s" s="18">
+        <v>201</v>
+      </c>
+      <c r="D49" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s" s="20">
         <v>193</v>
       </c>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="28"/>
       <c r="F49" t="s" s="21">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="G49" t="s" s="22">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="H49" s="23"/>
-      <c r="I49" t="s" s="22">
-        <v>193</v>
-      </c>
+      <c r="I49" s="23"/>
       <c r="J49" s="23"/>
       <c r="K49" t="s" s="22">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="L49" t="s" s="24">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="M49" t="s" s="22">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
@@ -3854,65 +3846,75 @@
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="28"/>
+      <c r="A50" t="s" s="16">
+        <v>200</v>
+      </c>
+      <c r="B50" t="s" s="19">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s" s="18">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E50" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F50" t="s" s="21">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s" s="22">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" t="s" s="22">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J50" s="23"/>
-      <c r="K50" t="s" s="22">
-        <v>82</v>
-      </c>
+      <c r="K50" s="23"/>
       <c r="L50" t="s" s="24">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M50" t="s" s="22">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
       <c r="P50" t="s" s="25">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="16">
-        <v>202</v>
-      </c>
-      <c r="B51" s="17"/>
+        <v>200</v>
+      </c>
+      <c r="B51" t="s" s="19">
+        <v>207</v>
+      </c>
       <c r="C51" t="s" s="18">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s" s="19">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s" s="20">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s" s="21">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G51" t="s" s="22">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="I51" t="s" s="22">
+        <v>196</v>
+      </c>
       <c r="J51" s="23"/>
-      <c r="K51" t="s" s="22">
-        <v>204</v>
-      </c>
+      <c r="K51" s="23"/>
       <c r="L51" t="s" s="24">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M51" t="s" s="22">
         <v>19</v>
@@ -3920,87 +3922,59 @@
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
       <c r="P51" t="s" s="25">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="16">
-        <v>202</v>
-      </c>
-      <c r="B52" t="s" s="19">
-        <v>205</v>
-      </c>
-      <c r="C52" t="s" s="18">
-        <v>206</v>
-      </c>
-      <c r="D52" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E52" t="s" s="20">
-        <v>19</v>
-      </c>
+      <c r="A52" s="26"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="28"/>
       <c r="F52" t="s" s="21">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G52" t="s" s="22">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="H52" s="23"/>
-      <c r="I52" t="s" s="22">
-        <v>197</v>
-      </c>
+      <c r="I52" s="23"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" t="s" s="24">
-        <v>208</v>
-      </c>
-      <c r="M52" t="s" s="22">
-        <v>19</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M52" s="23"/>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
       <c r="P52" t="s" s="25">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="16">
-        <v>202</v>
-      </c>
-      <c r="B53" t="s" s="19">
-        <v>210</v>
-      </c>
-      <c r="C53" t="s" s="18">
-        <v>211</v>
-      </c>
-      <c r="D53" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="E53" t="s" s="20">
-        <v>19</v>
-      </c>
+      <c r="A53" s="26"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="28"/>
       <c r="F53" t="s" s="21">
-        <v>212</v>
-      </c>
-      <c r="G53" t="s" s="22">
-        <v>213</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" t="s" s="22">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" t="s" s="24">
-        <v>214</v>
-      </c>
-      <c r="M53" t="s" s="22">
-        <v>19</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M53" s="23"/>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
       <c r="P53" t="s" s="25">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -4010,17 +3984,19 @@
       <c r="D54" s="17"/>
       <c r="E54" s="28"/>
       <c r="F54" t="s" s="21">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G54" t="s" s="22">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="J54" t="s" s="22">
+        <v>216</v>
+      </c>
       <c r="K54" s="23"/>
       <c r="L54" t="s" s="24">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M54" t="s" s="22">
         <v>19</v>
@@ -4028,39 +4004,39 @@
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
       <c r="P54" t="s" s="25">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" ht="32.05" customHeight="1">
       <c r="A55" t="s" s="38">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s" s="39">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s" s="40">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s" s="39">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s" s="41">
         <v>19</v>
       </c>
       <c r="F55" t="s" s="42">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G55" t="s" s="43">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H55" s="44"/>
       <c r="I55" t="s" s="43">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J55" s="44"/>
       <c r="K55" s="44"/>
       <c r="L55" t="s" s="45">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="43">
         <v>19</v>
@@ -4068,7 +4044,7 @@
       <c r="N55" s="44"/>
       <c r="O55" s="44"/>
       <c r="P55" t="s" s="46">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
